--- a/项目计划/混合开发计划书.xlsx
+++ b/项目计划/混合开发计划书.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="31">
   <si>
     <t>功能统计时间</t>
   </si>
@@ -49,29 +49,78 @@
     <t>30天</t>
   </si>
   <si>
+    <t>大致内容</t>
+  </si>
+  <si>
+    <t>开发人1</t>
+  </si>
+  <si>
+    <t>工作内容</t>
+  </si>
+  <si>
+    <t>开发人2</t>
+  </si>
+  <si>
+    <t>需求确定时间</t>
+  </si>
+  <si>
+    <t>测试版本上线时间</t>
+  </si>
+  <si>
     <t>准备阶段一(7.2-7.7)</t>
   </si>
   <si>
     <t>初级学习以及责写安卓单页Demo</t>
   </si>
   <si>
+    <t>王翔</t>
+  </si>
+  <si>
+    <t>初级学习</t>
+  </si>
+  <si>
+    <t>林伟杰</t>
+  </si>
+  <si>
+    <t>初级学习、安卓单页Demo</t>
+  </si>
+  <si>
     <t>准备阶段二(7.8-7.14)</t>
   </si>
   <si>
-    <t>中级学习，了解编辑、平台区别、控件相关 以及  最终项目</t>
+    <t>中级学习，了解编辑、平台区别、控件相关、 最终项目的环境搭建 以及开发计划书</t>
+  </si>
+  <si>
+    <t>中级学习、环境搭建、开发计划书</t>
+  </si>
+  <si>
+    <t>中级学习、生态环境了解</t>
+  </si>
+  <si>
+    <t>开发阶段(7.15-7.21)</t>
+  </si>
+  <si>
+    <t>设备逻辑线和其他逻辑线开始开发</t>
+  </si>
+  <si>
+    <t>其他逻辑线</t>
+  </si>
+  <si>
+    <t>设备逻辑线-设备管理模块-需求编号45-56  UI图-设备 我的</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -87,6 +136,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -94,25 +144,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -127,7 +175,36 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -141,69 +218,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -215,6 +242,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -223,30 +265,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -261,187 +303,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -524,6 +560,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -543,202 +603,186 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1060,19 +1104,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="2" width="14.125" customWidth="1"/>
-    <col min="3" max="3" width="63.75" customWidth="1"/>
-    <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="5" max="5" width="13.625" customWidth="1"/>
-    <col min="6" max="6" width="18.375" customWidth="1"/>
+    <col min="3" max="3" width="89.375" customWidth="1"/>
+    <col min="4" max="4" width="10.75" customWidth="1"/>
+    <col min="5" max="5" width="46.625" customWidth="1"/>
+    <col min="6" max="6" width="10.25" customWidth="1"/>
+    <col min="7" max="7" width="52.625" customWidth="1"/>
+    <col min="8" max="8" width="13.125" customWidth="1"/>
+    <col min="9" max="9" width="15.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1145,85 +1192,327 @@
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:9">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="8" t="s">
+      <c r="C8" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="8"/>
+      <c r="D8" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="9"/>
       <c r="C9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="8"/>
+        <v>18</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="9"/>
       <c r="C10" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="9"/>
+        <v>24</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="9" t="s">
+        <v>27</v>
+      </c>
       <c r="B11" s="9"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="10"/>
-      <c r="B12" s="10"/>
+      <c r="C11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" t="s">
+        <v>30</v>
+      </c>
+      <c r="H11" s="13">
+        <v>7.1</v>
+      </c>
+      <c r="I11" s="12">
+        <v>7.12</v>
+      </c>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="14"/>
+      <c r="B12" s="14"/>
       <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
+      <c r="D12" s="11" t="s">
+        <v>19</v>
+      </c>
       <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="10"/>
-      <c r="B13" s="10"/>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="10"/>
-      <c r="B14" s="10"/>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="10"/>
-      <c r="B15" s="10"/>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="10"/>
-      <c r="B16" s="10"/>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="10"/>
-      <c r="B17" s="10"/>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="10"/>
-      <c r="B18" s="10"/>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="10"/>
-      <c r="B19" s="10"/>
+      <c r="F12" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="14"/>
+      <c r="B13" s="14"/>
+      <c r="D13" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="14"/>
+      <c r="B14" s="14"/>
+      <c r="D14" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="14"/>
+      <c r="B15" s="14"/>
+      <c r="D15" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="14"/>
+      <c r="B16" s="14"/>
+      <c r="D16" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="14"/>
+      <c r="B17" s="14"/>
+      <c r="D17" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="14"/>
+      <c r="B18" s="14"/>
+      <c r="D18" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="14"/>
+      <c r="B19" s="14"/>
+      <c r="D19" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+    </row>
+    <row r="20" spans="4:11">
+      <c r="D20" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+    </row>
+    <row r="21" spans="4:11">
+      <c r="D21" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
+    </row>
+    <row r="22" spans="4:11">
+      <c r="D22" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+    </row>
+    <row r="23" spans="4:11">
+      <c r="D23" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="12"/>
+    </row>
+    <row r="24" spans="4:11">
+      <c r="D24" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="12"/>
+    </row>
+    <row r="25" spans="6:11">
+      <c r="F25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="12"/>
+    </row>
+    <row r="26" spans="8:11">
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="12"/>
+    </row>
+    <row r="27" spans="8:11">
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="12"/>
+    </row>
+    <row r="28" spans="8:11">
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="12"/>
+      <c r="K28" s="12"/>
+    </row>
+    <row r="29" spans="8:11">
+      <c r="H29" s="12"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="12"/>
+      <c r="K29" s="12"/>
+    </row>
+    <row r="30" spans="8:11">
+      <c r="H30" s="12"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="12"/>
+      <c r="K30" s="12"/>
+    </row>
+    <row r="31" spans="8:11">
+      <c r="H31" s="12"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="12"/>
+      <c r="K31" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="13">
     <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A8:B8"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A11:B11"/>

--- a/项目计划/混合开发计划书.xlsx
+++ b/项目计划/混合开发计划书.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="32">
   <si>
     <t>功能统计时间</t>
   </si>
@@ -97,7 +97,7 @@
     <t>中级学习、生态环境了解</t>
   </si>
   <si>
-    <t>开发阶段(7.15-7.21)</t>
+    <t>开发阶段一(7.15-7.21)</t>
   </si>
   <si>
     <t>设备逻辑线和其他逻辑线开始开发</t>
@@ -107,6 +107,9 @@
   </si>
   <si>
     <t>设备逻辑线-设备管理模块-需求编号45-56  UI图-设备 我的</t>
+  </si>
+  <si>
+    <t>开发阶段二(7.22-7.28)</t>
   </si>
 </sst>
 </file>
@@ -114,10 +117,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="22">
@@ -151,16 +154,45 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -182,21 +214,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -205,22 +239,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -251,7 +269,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -268,21 +286,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -309,175 +312,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -506,16 +509,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -526,6 +529,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -546,40 +564,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
         <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -598,6 +592,15 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -609,145 +612,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1107,7 +1110,7 @@
   <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1287,14 +1290,16 @@
         <v>7.1</v>
       </c>
       <c r="I11" s="12">
-        <v>7.12</v>
+        <v>7.19</v>
       </c>
       <c r="J11" s="12"/>
       <c r="K11" s="12"/>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="14"/>
-      <c r="B12" s="14"/>
+      <c r="A12" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="9"/>
       <c r="C12" s="2"/>
       <c r="D12" s="11" t="s">
         <v>19</v>

--- a/项目计划/混合开发计划书.xlsx
+++ b/项目计划/混合开发计划书.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="38">
   <si>
     <t>功能统计时间</t>
   </si>
@@ -34,7 +34,112 @@
     <t>开发阶段</t>
   </si>
   <si>
-    <t>7.16-7.12</t>
+    <t>7.16-8.12</t>
+  </si>
+  <si>
+    <r>
+      <t>需求清单，备注</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>绿景</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>表示已完成，备注</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="7"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>黄景</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>表示还有未完成的内容(文字补充)，备注</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>蓝景</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>表示下周要做，备注灰色表示该期计划要做，备注</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.5"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>棕景</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>表示H5页面，备注</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>紫景</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>表示如果时间充裕则计划要做</t>
+    </r>
   </si>
   <si>
     <t>联调阶段</t>
@@ -64,7 +169,7 @@
     <t>需求确定时间</t>
   </si>
   <si>
-    <t>测试版本上线时间</t>
+    <t>提测版本上线时间</t>
   </si>
   <si>
     <t>准备阶段一(7.2-7.7)</t>
@@ -103,13 +208,28 @@
     <t>设备逻辑线和其他逻辑线开始开发</t>
   </si>
   <si>
-    <t>其他逻辑线</t>
-  </si>
-  <si>
-    <t>设备逻辑线-设备管理模块-需求编号45-56  UI图-设备 我的</t>
+    <t xml:space="preserve">补充修善运行环境，其他逻辑线-包含我的、设置 、首页 需求183-185  29-38 354 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">设备逻辑线，包含设备管理，需求45-56 216-217 226  349 </t>
   </si>
   <si>
     <t>开发阶段二(7.22-7.28)</t>
+  </si>
+  <si>
+    <t>待定</t>
+  </si>
+  <si>
+    <t>设备逻辑线，包含设备管理，需求108-116 待定</t>
+  </si>
+  <si>
+    <t>开发阶段三(7.29-8.4)</t>
+  </si>
+  <si>
+    <t>补充阶段(8.5-8.12)</t>
+  </si>
+  <si>
+    <t>补充其他逻辑线</t>
   </si>
 </sst>
 </file>
@@ -118,12 +238,12 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -156,7 +276,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -170,6 +290,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -180,6 +307,75 @@
       <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -191,64 +387,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -260,34 +411,38 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="7"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5" tint="-0.5"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -306,181 +461,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -509,17 +664,37 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -529,6 +704,15 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -548,17 +732,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -577,180 +761,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1109,16 +1264,16 @@
   <sheetPr/>
   <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="2" width="14.125" customWidth="1"/>
-    <col min="3" max="3" width="89.375" customWidth="1"/>
+    <col min="3" max="3" width="98.5" customWidth="1"/>
     <col min="4" max="4" width="10.75" customWidth="1"/>
-    <col min="5" max="5" width="46.625" customWidth="1"/>
+    <col min="5" max="5" width="99.875" customWidth="1"/>
     <col min="6" max="6" width="10.25" customWidth="1"/>
     <col min="7" max="7" width="52.625" customWidth="1"/>
     <col min="8" max="8" width="13.125" customWidth="1"/>
@@ -1163,16 +1318,18 @@
       <c r="B4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="2"/>
+      <c r="C4" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -1180,10 +1337,10 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C6" s="2"/>
     </row>
@@ -1199,67 +1356,67 @@
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F8" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="8" t="s">
-        <v>13</v>
-      </c>
       <c r="H8" s="10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B9" s="9"/>
       <c r="C9" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B10" s="9"/>
       <c r="C10" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H10" s="12"/>
       <c r="I10" s="12"/>
@@ -1268,23 +1425,23 @@
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B11" s="9"/>
       <c r="C11" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H11" s="13">
         <v>7.1</v>
@@ -1297,30 +1454,46 @@
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B12" s="9"/>
-      <c r="C12" s="2"/>
+      <c r="C12" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="D12" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="F12" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
+        <v>22</v>
+      </c>
+      <c r="G12" t="s">
+        <v>34</v>
+      </c>
+      <c r="H12" s="12">
+        <v>7.22</v>
+      </c>
+      <c r="I12" s="12">
+        <v>7.26</v>
+      </c>
       <c r="J12" s="12"/>
       <c r="K12" s="12"/>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="14"/>
-      <c r="B13" s="14"/>
+      <c r="A13" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="9"/>
+      <c r="C13" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="D13" s="11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H13" s="12"/>
       <c r="I13" s="12"/>
@@ -1328,13 +1501,18 @@
       <c r="K13" s="12"/>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="14"/>
+      <c r="A14" s="14" t="s">
+        <v>36</v>
+      </c>
       <c r="B14" s="14"/>
+      <c r="C14" t="s">
+        <v>37</v>
+      </c>
       <c r="D14" s="11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H14" s="12"/>
       <c r="I14" s="12"/>
@@ -1345,10 +1523,10 @@
       <c r="A15" s="14"/>
       <c r="B15" s="14"/>
       <c r="D15" s="11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H15" s="12"/>
       <c r="I15" s="12"/>
@@ -1359,10 +1537,10 @@
       <c r="A16" s="14"/>
       <c r="B16" s="14"/>
       <c r="D16" s="11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H16" s="12"/>
       <c r="I16" s="12"/>
@@ -1372,12 +1550,8 @@
     <row r="17" spans="1:11">
       <c r="A17" s="14"/>
       <c r="B17" s="14"/>
-      <c r="D17" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="F17" s="11" t="s">
-        <v>21</v>
-      </c>
+      <c r="D17" s="11"/>
+      <c r="F17" s="11"/>
       <c r="H17" s="12"/>
       <c r="I17" s="12"/>
       <c r="J17" s="12"/>
@@ -1386,12 +1560,8 @@
     <row r="18" spans="1:11">
       <c r="A18" s="14"/>
       <c r="B18" s="14"/>
-      <c r="D18" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="F18" s="11" t="s">
-        <v>21</v>
-      </c>
+      <c r="D18" s="11"/>
+      <c r="F18" s="11"/>
       <c r="H18" s="12"/>
       <c r="I18" s="12"/>
       <c r="J18" s="12"/>
@@ -1400,72 +1570,48 @@
     <row r="19" spans="1:11">
       <c r="A19" s="14"/>
       <c r="B19" s="14"/>
-      <c r="D19" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="F19" s="11" t="s">
-        <v>21</v>
-      </c>
+      <c r="D19" s="11"/>
+      <c r="F19" s="11"/>
       <c r="H19" s="12"/>
       <c r="I19" s="12"/>
       <c r="J19" s="12"/>
       <c r="K19" s="12"/>
     </row>
     <row r="20" spans="4:11">
-      <c r="D20" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="F20" s="11" t="s">
-        <v>21</v>
-      </c>
+      <c r="D20" s="11"/>
+      <c r="F20" s="11"/>
       <c r="H20" s="12"/>
       <c r="I20" s="12"/>
       <c r="J20" s="12"/>
       <c r="K20" s="12"/>
     </row>
     <row r="21" spans="4:11">
-      <c r="D21" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="F21" s="11" t="s">
-        <v>21</v>
-      </c>
+      <c r="D21" s="11"/>
+      <c r="F21" s="11"/>
       <c r="H21" s="12"/>
       <c r="I21" s="12"/>
       <c r="J21" s="12"/>
       <c r="K21" s="12"/>
     </row>
     <row r="22" spans="4:11">
-      <c r="D22" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="F22" s="11" t="s">
-        <v>21</v>
-      </c>
+      <c r="D22" s="11"/>
+      <c r="F22" s="11"/>
       <c r="H22" s="12"/>
       <c r="I22" s="12"/>
       <c r="J22" s="12"/>
       <c r="K22" s="12"/>
     </row>
     <row r="23" spans="4:11">
-      <c r="D23" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="F23" s="11" t="s">
-        <v>21</v>
-      </c>
+      <c r="D23" s="11"/>
+      <c r="F23" s="11"/>
       <c r="H23" s="12"/>
       <c r="I23" s="12"/>
       <c r="J23" s="12"/>
       <c r="K23" s="12"/>
     </row>
     <row r="24" spans="4:11">
-      <c r="D24" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="F24" s="11" t="s">
-        <v>21</v>
-      </c>
+      <c r="D24" s="11"/>
+      <c r="F24" s="11"/>
       <c r="H24" s="12"/>
       <c r="I24" s="12"/>
       <c r="J24" s="12"/>
